--- a/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Variables/33bus_MINLP_Opt_problem_Variables.xlsx
+++ b/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Variables/33bus_MINLP_Opt_problem_Variables.xlsx
@@ -29,9 +29,6 @@
     <sheet name="I_line_im" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="I_line_sq" sheetId="21" state="visible" r:id="rId21"/>
     <sheet name="I_line_mag" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="P_inj" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Q_inj" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="P_cost" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,45 +741,6 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1297,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.917673761806236</v>
+        <v>3.917673702063921</v>
       </c>
     </row>
     <row r="3">
@@ -1310,7 +1268,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.806110113327732e-08</v>
+        <v>6.004507793661425e-08</v>
       </c>
     </row>
     <row r="4">
@@ -1323,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.142103464002682e-08</v>
+        <v>9.142265474992319e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1336,7 +1294,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9.397306100833177e-08</v>
+        <v>9.397309506398162e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1349,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.535953070033157e-08</v>
+        <v>9.535955161496049e-08</v>
       </c>
     </row>
     <row r="7">
@@ -1362,7 +1320,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9.690727516966261e-08</v>
+        <v>9.690727631519336e-08</v>
       </c>
     </row>
     <row r="8">
@@ -1375,7 +1333,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>9.704096249890378e-08</v>
+        <v>9.704096320966337e-08</v>
       </c>
     </row>
     <row r="9">
@@ -1388,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9.735417976073628e-08</v>
+        <v>9.735417988226576e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1401,7 +1359,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>9.764461220306587e-08</v>
+        <v>9.76446122002574e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1414,7 +1372,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>9.786461502035522e-08</v>
+        <v>9.786461487738024e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1427,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>9.789753234706102e-08</v>
+        <v>9.789753216948003e-08</v>
       </c>
     </row>
     <row r="13">
@@ -1440,7 +1398,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>9.795283011263711e-08</v>
+        <v>9.795297772224869e-08</v>
       </c>
     </row>
     <row r="14">
@@ -1453,7 +1411,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>9.813053072291361e-08</v>
+        <v>9.813053066750141e-08</v>
       </c>
     </row>
     <row r="15">
@@ -1466,7 +1424,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>9.818329881306828e-08</v>
+        <v>9.818329879737258e-08</v>
       </c>
     </row>
     <row r="16">
@@ -1479,7 +1437,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>9.822044289031316e-08</v>
+        <v>9.822044470376766e-08</v>
       </c>
     </row>
     <row r="17">
@@ -1492,7 +1450,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>9.825526414641886e-08</v>
+        <v>9.825526413982649e-08</v>
       </c>
     </row>
     <row r="18">
@@ -1505,7 +1463,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>9.829830630795878e-08</v>
+        <v>9.829830630684931e-08</v>
       </c>
     </row>
     <row r="19">
@@ -1518,7 +1476,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>9.831202087330489e-08</v>
+        <v>9.831202087200317e-08</v>
       </c>
     </row>
     <row r="20">
@@ -1531,7 +1489,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>5.163639360827273e-08</v>
+        <v>6.453410287784528e-08</v>
       </c>
     </row>
     <row r="21">
@@ -1544,7 +1502,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>7.869329633632569e-08</v>
+        <v>7.936759890964628e-08</v>
       </c>
     </row>
     <row r="22">
@@ -1557,7 +1515,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>7.737848152177133e-08</v>
+        <v>8.084970166734109e-08</v>
       </c>
     </row>
     <row r="23">
@@ -1570,7 +1528,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>8.170217304753858e-08</v>
+        <v>8.197571085531273e-08</v>
       </c>
     </row>
     <row r="24">
@@ -1583,7 +1541,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>9.28366791540202e-08</v>
+        <v>9.283664977902124e-08</v>
       </c>
     </row>
     <row r="25">
@@ -1596,7 +1554,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>9.449384892795354e-08</v>
+        <v>9.449410021305022e-08</v>
       </c>
     </row>
     <row r="26">
@@ -1609,7 +1567,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>9.507125339878516e-08</v>
+        <v>9.507137322123574e-08</v>
       </c>
     </row>
     <row r="27">
@@ -1622,7 +1580,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>9.701999579434983e-08</v>
+        <v>9.701999656461075e-08</v>
       </c>
     </row>
     <row r="28">
@@ -1635,7 +1593,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>9.715659948886922e-08</v>
+        <v>9.715659986019767e-08</v>
       </c>
     </row>
     <row r="29">
@@ -1648,7 +1606,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>9.75588534415871e-08</v>
+        <v>9.755885343950258e-08</v>
       </c>
     </row>
     <row r="30">
@@ -1661,7 +1619,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>9.778352497806973e-08</v>
+        <v>9.778352581184269e-08</v>
       </c>
     </row>
     <row r="31">
@@ -1674,7 +1632,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>9.788482090252732e-08</v>
+        <v>9.788482089876661e-08</v>
       </c>
     </row>
     <row r="32">
@@ -1687,7 +1645,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>9.800906908853507e-08</v>
+        <v>9.800906902478989e-08</v>
       </c>
     </row>
     <row r="33">
@@ -1700,7 +1658,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>9.803289894939054e-08</v>
+        <v>9.80332527006358e-08</v>
       </c>
     </row>
     <row r="34">
@@ -1713,7 +1671,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>9.803926255799764e-08</v>
+        <v>9.803926253655929e-08</v>
       </c>
     </row>
   </sheetData>
@@ -1762,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.435137831697177</v>
+        <v>2.435137803147196</v>
       </c>
     </row>
     <row r="3">
@@ -1775,7 +1733,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.853277855818818e-08</v>
+        <v>4.625488445045842e-08</v>
       </c>
     </row>
     <row r="4">
@@ -1788,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>8.678851283574292e-08</v>
+        <v>9.02489468442344e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1801,7 +1759,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9.095364030144984e-08</v>
+        <v>9.093688406074668e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1814,7 +1772,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.312050946827128e-08</v>
+        <v>9.312134571178393e-08</v>
       </c>
     </row>
     <row r="7">
@@ -1827,7 +1785,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9.55337438282856e-08</v>
+        <v>9.553386593824635e-08</v>
       </c>
     </row>
     <row r="8">
@@ -1840,7 +1798,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>9.663153366132922e-08</v>
+        <v>9.568192322083408e-08</v>
       </c>
     </row>
     <row r="9">
@@ -1853,7 +1811,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9.600575655870065e-08</v>
+        <v>9.600586480542698e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1866,7 +1824,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>9.632604402658631e-08</v>
+        <v>9.632604488912212e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1879,7 +1837,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>9.658801618381685e-08</v>
+        <v>9.65880162914608e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1892,7 +1850,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>9.662914566520546e-08</v>
+        <v>9.662914587512272e-08</v>
       </c>
     </row>
     <row r="13">
@@ -1905,7 +1863,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>9.669695060103326e-08</v>
+        <v>9.669695098800127e-08</v>
       </c>
     </row>
     <row r="14">
@@ -1918,7 +1876,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>9.691495088719966e-08</v>
+        <v>9.69149513865033e-08</v>
       </c>
     </row>
     <row r="15">
@@ -1931,7 +1889,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>9.697878679285775e-08</v>
+        <v>9.697878681637269e-08</v>
       </c>
     </row>
     <row r="16">
@@ -1944,7 +1902,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>9.701367395056142e-08</v>
+        <v>9.701368724497215e-08</v>
       </c>
     </row>
     <row r="17">
@@ -1957,7 +1915,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>9.705151885146003e-08</v>
+        <v>9.705151915488465e-08</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1928,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>9.710132300255248e-08</v>
+        <v>9.710132337626641e-08</v>
       </c>
     </row>
     <row r="19">
@@ -1983,7 +1941,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>9.711904942491723e-08</v>
+        <v>9.71190497638014e-08</v>
       </c>
     </row>
     <row r="20">
@@ -1996,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>4.2133599946036e-08</v>
+        <v>4.946841101676622e-08</v>
       </c>
     </row>
     <row r="21">
@@ -2009,7 +1967,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>6.126167740054815e-08</v>
+        <v>6.485448067203413e-08</v>
       </c>
     </row>
     <row r="22">
@@ -2022,7 +1980,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>6.210652382458593e-08</v>
+        <v>6.67494018435757e-08</v>
       </c>
     </row>
     <row r="23">
@@ -2035,7 +1993,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>6.569402197554307e-08</v>
+        <v>6.833998555975447e-08</v>
       </c>
     </row>
     <row r="24">
@@ -2048,7 +2006,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>8.849295846762744e-08</v>
+        <v>8.849651247275866e-08</v>
       </c>
     </row>
     <row r="25">
@@ -2061,7 +2019,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>9.065474354864591e-08</v>
+        <v>9.065464970136255e-08</v>
       </c>
     </row>
     <row r="26">
@@ -2074,7 +2032,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>9.159974380027224e-08</v>
+        <v>9.146321092175854e-08</v>
       </c>
     </row>
     <row r="27">
@@ -2087,7 +2045,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>9.576683239798085e-08</v>
+        <v>9.576689382622885e-08</v>
       </c>
     </row>
     <row r="28">
@@ -2100,7 +2058,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>9.60499193248756e-08</v>
+        <v>9.604993813130988e-08</v>
       </c>
     </row>
     <row r="29">
@@ -2113,7 +2071,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>9.685139758279812e-08</v>
+        <v>9.685139761025742e-08</v>
       </c>
     </row>
     <row r="30">
@@ -2126,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>9.72720582861803e-08</v>
+        <v>9.727205829585891e-08</v>
       </c>
     </row>
     <row r="31">
@@ -2139,7 +2097,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>9.74659443708183e-08</v>
+        <v>9.746594436971852e-08</v>
       </c>
     </row>
     <row r="32">
@@ -2152,7 +2110,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>9.755769329485246e-08</v>
+        <v>9.75576932869804e-08</v>
       </c>
     </row>
     <row r="33">
@@ -2165,7 +2123,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>9.75766676217442e-08</v>
+        <v>9.757666773277082e-08</v>
       </c>
     </row>
     <row r="34">
@@ -2178,7 +2136,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>9.75827552530683e-08</v>
+        <v>9.758275526275374e-08</v>
       </c>
     </row>
   </sheetData>
@@ -2227,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.917673761806308</v>
+        <v>3.917673702063769</v>
       </c>
     </row>
     <row r="3">
@@ -2240,7 +2198,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.444296147822357</v>
+        <v>3.444296147804558</v>
       </c>
     </row>
     <row r="4">
@@ -2253,7 +2211,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.362892640647447</v>
+        <v>2.362892640668198</v>
       </c>
     </row>
     <row r="5">
@@ -2266,7 +2224,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2.222992306720716</v>
+        <v>2.222992306735416</v>
       </c>
     </row>
     <row r="6">
@@ -2279,7 +2237,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.144293506186425</v>
+        <v>2.144293506195072</v>
       </c>
     </row>
     <row r="7">
@@ -2292,7 +2250,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1.095266133689099</v>
+        <v>1.095266133688261</v>
       </c>
     </row>
     <row r="8">
@@ -2305,7 +2263,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.893351718562424</v>
+        <v>0.8933517185604528</v>
       </c>
     </row>
     <row r="9">
@@ -2318,7 +2276,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6885138662425559</v>
+        <v>0.6885138662409733</v>
       </c>
     </row>
     <row r="10">
@@ -2331,7 +2289,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6243334424670126</v>
+        <v>0.6243334424658025</v>
       </c>
     </row>
     <row r="11">
@@ -2344,7 +2302,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5607726392667925</v>
+        <v>0.5607726392660801</v>
       </c>
     </row>
     <row r="12">
@@ -2357,7 +2315,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5152190372898469</v>
+        <v>0.5152190372892715</v>
       </c>
     </row>
     <row r="13">
@@ -2370,7 +2328,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4543380038365875</v>
+        <v>0.4543380038362746</v>
       </c>
     </row>
     <row r="14">
@@ -2383,7 +2341,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3916718752881166</v>
+        <v>0.3916718752880438</v>
       </c>
     </row>
     <row r="15">
@@ -2396,7 +2354,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.270942814123027</v>
+        <v>0.2709428141230015</v>
       </c>
     </row>
     <row r="16">
@@ -2409,7 +2367,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2105859396904869</v>
+        <v>0.2105859396904521</v>
       </c>
     </row>
     <row r="17">
@@ -2422,7 +2380,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1503045723317132</v>
+        <v>0.1503045723317077</v>
       </c>
     </row>
     <row r="18">
@@ -2435,7 +2393,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09005303740125123</v>
+        <v>0.09005303740126194</v>
       </c>
     </row>
     <row r="19">
@@ -2448,7 +2406,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.361137231775395</v>
+        <v>0.3611372143838656</v>
       </c>
     </row>
     <row r="20">
@@ -2461,7 +2419,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2709763295092606</v>
+        <v>0.2709763250343149</v>
       </c>
     </row>
     <row r="21">
@@ -2474,7 +2432,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1801442331834204</v>
+        <v>0.1801442294307969</v>
       </c>
     </row>
     <row r="22">
@@ -2487,7 +2445,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09004355270164938</v>
+        <v>0.09004355242694133</v>
       </c>
     </row>
     <row r="23">
@@ -2500,7 +2458,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9396124681996737</v>
+        <v>0.9396124681996549</v>
       </c>
     </row>
     <row r="24">
@@ -2513,7 +2471,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.846430934387986</v>
+        <v>0.8464309343880515</v>
       </c>
     </row>
     <row r="25">
@@ -2526,7 +2484,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4212873564819913</v>
+        <v>0.421287356482078</v>
       </c>
     </row>
     <row r="26">
@@ -2539,7 +2497,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9507789388195533</v>
+        <v>0.9507789388163956</v>
       </c>
     </row>
     <row r="27">
@@ -2552,7 +2510,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8881781441146347</v>
+        <v>0.8881781441114122</v>
       </c>
     </row>
     <row r="28">
@@ -2565,7 +2523,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8248492530802829</v>
+        <v>0.8248492530775559</v>
       </c>
     </row>
     <row r="29">
@@ -2578,7 +2536,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7535485117841144</v>
+        <v>0.7535485117824654</v>
       </c>
     </row>
     <row r="30">
@@ -2591,7 +2549,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6257152703607485</v>
+        <v>0.6257152703598499</v>
       </c>
     </row>
     <row r="31">
@@ -2604,7 +2562,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4218197044097005</v>
+        <v>0.4218197044091215</v>
       </c>
     </row>
     <row r="32">
@@ -2617,7 +2575,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2702261672851506</v>
+        <v>0.2702261672846655</v>
       </c>
     </row>
     <row r="33">
@@ -2630,7 +2588,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06001307052830465</v>
+        <v>0.06001307052828038</v>
       </c>
     </row>
     <row r="34">
@@ -2744,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.435137831697176</v>
+        <v>2.435137803147285</v>
       </c>
     </row>
     <row r="3">
@@ -2757,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.207819567316758</v>
+        <v>2.207819564953777</v>
       </c>
     </row>
     <row r="4">
@@ -2770,7 +2728,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1.684198074963916</v>
+        <v>1.684198075946988</v>
       </c>
     </row>
     <row r="5">
@@ -2783,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.594063084604684</v>
+        <v>1.594063085567754</v>
       </c>
     </row>
     <row r="6">
@@ -2796,7 +2754,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.55453954693801</v>
+        <v>1.554539547898841</v>
       </c>
     </row>
     <row r="7">
@@ -2809,7 +2767,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5278865190399884</v>
+        <v>0.5278865199921867</v>
       </c>
     </row>
     <row r="8">
@@ -2822,7 +2780,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4215580893397863</v>
+        <v>0.4215580893385873</v>
       </c>
     </row>
     <row r="9">
@@ -2835,7 +2793,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3199593633489606</v>
+        <v>0.3199593633480191</v>
       </c>
     </row>
     <row r="10">
@@ -2848,7 +2806,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2969559782663644</v>
+        <v>0.2969559782656717</v>
       </c>
     </row>
     <row r="11">
@@ -2861,7 +2819,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2744320645212639</v>
+        <v>0.2744320645207665</v>
       </c>
     </row>
     <row r="12">
@@ -2874,7 +2832,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2442490965937161</v>
+        <v>0.2442490965932897</v>
       </c>
     </row>
     <row r="13">
@@ -2887,7 +2845,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2089578362712707</v>
+        <v>0.2089578362708533</v>
       </c>
     </row>
     <row r="14">
@@ -2900,7 +2858,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.171860186718753</v>
+        <v>0.1718601867185043</v>
       </c>
     </row>
     <row r="15">
@@ -2913,7 +2871,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0909005021254039</v>
+        <v>0.09090050212527956</v>
       </c>
     </row>
     <row r="16">
@@ -2926,7 +2884,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08058288743770348</v>
+        <v>0.08058288743765019</v>
       </c>
     </row>
     <row r="17">
@@ -2939,7 +2897,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0603774387842293</v>
+        <v>0.06037743878422042</v>
       </c>
     </row>
     <row r="18">
@@ -2952,7 +2910,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04004156941022075</v>
+        <v>0.04004156941023851</v>
       </c>
     </row>
     <row r="19">
@@ -2965,7 +2923,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1610786194789426</v>
+        <v>0.1610786011917753</v>
       </c>
     </row>
     <row r="20">
@@ -2978,7 +2936,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1209250684067964</v>
+        <v>0.1209250574725385</v>
       </c>
     </row>
     <row r="21">
@@ -2991,7 +2949,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08017527591171358</v>
+        <v>0.08017526861348045</v>
       </c>
     </row>
     <row r="22">
@@ -3004,7 +2962,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04005762724814232</v>
+        <v>0.0400576246006068</v>
       </c>
     </row>
     <row r="23">
@@ -3017,7 +2975,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4572427701300796</v>
+        <v>0.4572427702634485</v>
       </c>
     </row>
     <row r="24">
@@ -3030,7 +2988,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4050688881096143</v>
+        <v>0.4050688882465181</v>
       </c>
     </row>
     <row r="25">
@@ -3043,7 +3001,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2010073105029342</v>
+        <v>0.2010073106396071</v>
       </c>
     </row>
     <row r="26">
@@ -3056,7 +3014,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9736351611319449</v>
+        <v>0.9736351611294936</v>
       </c>
     </row>
     <row r="27">
@@ -3069,7 +3027,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9473104677146438</v>
+        <v>0.9473104677124411</v>
       </c>
     </row>
     <row r="28">
@@ -3082,7 +3040,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9206156144640865</v>
+        <v>0.9206156144619815</v>
       </c>
     </row>
     <row r="29">
@@ -3095,7 +3053,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8906519783231204</v>
+        <v>0.8906519783219835</v>
       </c>
     </row>
     <row r="30">
@@ -3108,7 +3066,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8138278559378875</v>
+        <v>0.8138278559374612</v>
       </c>
     </row>
     <row r="31">
@@ -3121,7 +3079,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2118436596076378</v>
+        <v>0.2118436596074069</v>
       </c>
     </row>
     <row r="32">
@@ -3134,7 +3092,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1402687667776448</v>
+        <v>0.1402687667777158</v>
       </c>
     </row>
     <row r="33">
@@ -3147,7 +3105,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04002037741582143</v>
+        <v>0.04002037741585696</v>
       </c>
     </row>
     <row r="34">
@@ -3261,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.905433361536761</v>
+        <v>-3.905433302143809</v>
       </c>
     </row>
     <row r="3">
@@ -3274,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.392505017426082</v>
+        <v>-3.392505017445302</v>
       </c>
     </row>
     <row r="4">
@@ -3287,7 +3245,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.342992212747747</v>
+        <v>-2.342992212762245</v>
       </c>
     </row>
     <row r="5">
@@ -3300,7 +3258,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.204293410826925</v>
+        <v>-2.204293410835514</v>
       </c>
     </row>
     <row r="6">
@@ -3313,7 +3271,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.106044975601442</v>
+        <v>-2.106044975597228</v>
       </c>
     </row>
     <row r="7">
@@ -3326,7 +3284,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.093351621521499</v>
+        <v>-1.093351621519516</v>
       </c>
     </row>
     <row r="8">
@@ -3339,7 +3297,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.8885137688883404</v>
+        <v>-0.8885137688868311</v>
       </c>
     </row>
     <row r="9">
@@ -3352,7 +3310,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6843333448224597</v>
+        <v>-0.6843333448212323</v>
       </c>
     </row>
     <row r="10">
@@ -3365,7 +3323,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.620772541402314</v>
+        <v>-0.6207725414014413</v>
       </c>
     </row>
     <row r="11">
@@ -3378,7 +3336,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5602189393922911</v>
+        <v>-0.5602189393917207</v>
       </c>
     </row>
     <row r="12">
@@ -3391,7 +3349,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5143379058839281</v>
+        <v>-0.5143379058832818</v>
       </c>
     </row>
     <row r="13">
@@ -3404,7 +3362,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.451671777157603</v>
+        <v>-0.4516717771574943</v>
       </c>
     </row>
     <row r="14">
@@ -3417,7 +3375,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3909427159397317</v>
+        <v>-0.3909427159397122</v>
       </c>
     </row>
     <row r="15">
@@ -3430,7 +3388,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.270585841470043</v>
+        <v>-0.2705858414699998</v>
       </c>
     </row>
     <row r="16">
@@ -3443,7 +3401,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2103044740764709</v>
+        <v>-0.2103044740764361</v>
       </c>
     </row>
     <row r="17">
@@ -3456,7 +3414,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1500529391029438</v>
+        <v>-0.1500529391029561</v>
       </c>
     </row>
     <row r="18">
@@ -3469,7 +3427,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0899999016879641</v>
+        <v>-0.08999990168795705</v>
       </c>
     </row>
     <row r="19">
@@ -3482,7 +3440,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3609762778728868</v>
+        <v>-0.3609762605001868</v>
       </c>
     </row>
     <row r="20">
@@ -3495,7 +3453,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2701441544901086</v>
+        <v>-0.2701441500632222</v>
       </c>
     </row>
     <row r="21">
@@ -3508,7 +3466,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1800434753231963</v>
+        <v>-0.1800434715771808</v>
       </c>
     </row>
     <row r="22">
@@ -3521,7 +3479,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.08999991829784365</v>
+        <v>-0.08999991802429023</v>
       </c>
     </row>
     <row r="23">
@@ -3534,7 +3492,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.9364308415513817</v>
+        <v>-0.9364308415513984</v>
       </c>
     </row>
     <row r="24">
@@ -3547,7 +3505,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.841287261988065</v>
+        <v>-0.8412872619879529</v>
       </c>
     </row>
     <row r="25">
@@ -3560,7 +3518,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.4199999049287489</v>
+        <v>-0.4199999049286225</v>
       </c>
     </row>
     <row r="26">
@@ -3573,7 +3531,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.948178047094558</v>
+        <v>-0.9481780470914714</v>
       </c>
     </row>
     <row r="27">
@@ -3586,7 +3544,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.8848491559237476</v>
+        <v>-0.8848491559210224</v>
       </c>
     </row>
     <row r="28">
@@ -3599,7 +3557,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.8135484142252722</v>
+        <v>-0.8135484142236288</v>
       </c>
     </row>
     <row r="29">
@@ -3612,7 +3570,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.7457151725772458</v>
+        <v>-0.7457151725763429</v>
       </c>
     </row>
     <row r="30">
@@ -3625,7 +3583,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.6218196065248929</v>
+        <v>-0.6218196065243495</v>
       </c>
     </row>
     <row r="31">
@@ -3638,7 +3596,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.4202260692760573</v>
+        <v>-0.4202260692756293</v>
       </c>
     </row>
     <row r="32">
@@ -3651,7 +3609,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2700129724954706</v>
+        <v>-0.2700129724950211</v>
       </c>
     </row>
     <row r="33">
@@ -3664,7 +3622,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.05999990196075269</v>
+        <v>-0.05999990196072842</v>
       </c>
     </row>
     <row r="34">
@@ -3778,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.428898148262562</v>
+        <v>-2.428898119890874</v>
       </c>
     </row>
     <row r="3">
@@ -3791,7 +3749,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.181440758305531</v>
+        <v>-2.181440755961468</v>
       </c>
     </row>
     <row r="4">
@@ -3804,7 +3762,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.674062993651013</v>
+        <v>-1.674062994630923</v>
       </c>
     </row>
     <row r="5">
@@ -3817,7 +3775,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.584539453817531</v>
+        <v>-1.584539454777527</v>
       </c>
     </row>
     <row r="6">
@@ -3830,7 +3788,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.52152158463819</v>
+        <v>-1.521521585587884</v>
       </c>
     </row>
     <row r="7">
@@ -3843,7 +3801,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5215579927082459</v>
+        <v>-0.5215579936567138</v>
       </c>
     </row>
     <row r="8">
@@ -3856,7 +3814,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4199592673431773</v>
+        <v>-0.4199592673421471</v>
       </c>
     </row>
     <row r="9">
@@ -3869,7 +3827,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3169558819403306</v>
+        <v>-0.3169558819396379</v>
       </c>
     </row>
     <row r="10">
@@ -3882,7 +3840,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2944319679331642</v>
+        <v>-0.2944319679326846</v>
       </c>
     </row>
     <row r="11">
@@ -3895,7 +3853,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.274248999964577</v>
+        <v>-0.2742489999641506</v>
       </c>
     </row>
     <row r="12">
@@ -3908,7 +3866,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2439577395742987</v>
+        <v>-0.2439577395738901</v>
       </c>
     </row>
     <row r="13">
@@ -3921,7 +3879,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2068600898038042</v>
+        <v>-0.2068600898035822</v>
       </c>
     </row>
     <row r="14">
@@ -3934,7 +3892,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.170900405146579</v>
+        <v>-0.1709004051464724</v>
       </c>
     </row>
     <row r="15">
@@ -3947,7 +3905,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.09058279042406525</v>
+        <v>-0.09058279042394091</v>
       </c>
     </row>
     <row r="16">
@@ -3960,7 +3918,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.08037734173267808</v>
+        <v>-0.08037734173269584</v>
       </c>
     </row>
     <row r="17">
@@ -3973,7 +3931,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.060041472308896</v>
+        <v>-0.06004147230891377</v>
       </c>
     </row>
     <row r="18">
@@ -3986,7 +3944,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.03999990288091837</v>
+        <v>-0.0399999028809539</v>
       </c>
     </row>
     <row r="19">
@@ -3999,7 +3957,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1609250262731621</v>
+        <v>-0.1609250080041136</v>
       </c>
     </row>
     <row r="20">
@@ -4012,7 +3970,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1201752146500201</v>
+        <v>-0.1201752037590431</v>
       </c>
     </row>
     <row r="21">
@@ -4025,7 +3983,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.08005756514169349</v>
+        <v>-0.08005755785113422</v>
       </c>
     </row>
     <row r="22">
@@ -4038,7 +3996,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.03999993430598536</v>
+        <v>-0.03999993165997751</v>
       </c>
     </row>
     <row r="23">
@@ -4051,7 +4009,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.4550687996166225</v>
+        <v>-0.4550687997499914</v>
       </c>
     </row>
     <row r="24">
@@ -4064,7 +4022,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.4010072198481218</v>
+        <v>-0.4010072199849368</v>
       </c>
     </row>
     <row r="25">
@@ -4077,7 +4035,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1999999084002546</v>
+        <v>-0.1999999085367854</v>
       </c>
     </row>
     <row r="26">
@@ -4090,7 +4048,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.9723103719478132</v>
+        <v>-0.9723103719455395</v>
       </c>
     </row>
     <row r="27">
@@ -4103,7 +4061,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.9456155184141579</v>
+        <v>-0.9456155184120973</v>
       </c>
     </row>
     <row r="28">
@@ -4116,7 +4074,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.9106518814717202</v>
+        <v>-0.9106518814705478</v>
       </c>
     </row>
     <row r="29">
@@ -4129,7 +4087,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.8838277586658982</v>
+        <v>-0.8838277586653653</v>
       </c>
     </row>
     <row r="30">
@@ -4142,7 +4100,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.8118435621416964</v>
+        <v>-0.8118435621414477</v>
       </c>
     </row>
     <row r="31">
@@ -4155,7 +4113,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2102686692199995</v>
+        <v>-0.2102686692199107</v>
       </c>
     </row>
     <row r="32">
@@ -4168,7 +4126,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1400202798392058</v>
+        <v>-0.1400202798392414</v>
       </c>
     </row>
     <row r="33">
@@ -4181,7 +4139,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.03999990241727147</v>
+        <v>-0.03999990241723594</v>
       </c>
     </row>
     <row r="34">
@@ -4295,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1224040026954754</v>
+        <v>0.1224039991996051</v>
       </c>
     </row>
     <row r="3">
@@ -4308,7 +4266,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5179113039627481</v>
+        <v>0.5179113035925553</v>
       </c>
     </row>
     <row r="4">
@@ -4321,7 +4279,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1990042789969948</v>
+        <v>0.1990042790595226</v>
       </c>
     </row>
     <row r="5">
@@ -4334,7 +4292,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.186988958937917</v>
+        <v>0.1869889589990237</v>
       </c>
     </row>
     <row r="6">
@@ -4347,7 +4305,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3824853058498334</v>
+        <v>0.3824853059784417</v>
       </c>
     </row>
     <row r="7">
@@ -4360,7 +4318,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0191451216760008</v>
+        <v>0.0191451216874583</v>
       </c>
     </row>
     <row r="8">
@@ -4373,7 +4331,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04837949674083575</v>
+        <v>0.04837949673621722</v>
       </c>
     </row>
     <row r="9">
@@ -4386,7 +4344,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04180521420096284</v>
+        <v>0.04180521419741012</v>
       </c>
     </row>
     <row r="10">
@@ -4399,7 +4357,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03560901064698641</v>
+        <v>0.03560901064361133</v>
       </c>
     </row>
     <row r="11">
@@ -4412,7 +4370,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005536998745014898</v>
+        <v>0.005536998743593813</v>
       </c>
     </row>
     <row r="12">
@@ -4425,7 +4383,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008811314059187225</v>
+        <v>0.008811314059897768</v>
       </c>
     </row>
     <row r="13">
@@ -4438,7 +4396,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02666226678984529</v>
+        <v>0.02666226678780248</v>
       </c>
     </row>
     <row r="14">
@@ -4451,7 +4409,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007291593483849113</v>
+        <v>0.007291593483316205</v>
       </c>
     </row>
     <row r="15">
@@ -4464,7 +4422,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003569726529839556</v>
+        <v>0.003569726530017192</v>
       </c>
     </row>
     <row r="16">
@@ -4490,7 +4448,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002516332287694212</v>
+        <v>0.002516332287516576</v>
       </c>
     </row>
     <row r="18">
@@ -4503,7 +4461,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005313571328713351</v>
+        <v>0.0005313571330489708</v>
       </c>
     </row>
     <row r="19">
@@ -4516,7 +4474,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00160953902508254</v>
+        <v>0.001609538836788715</v>
       </c>
     </row>
     <row r="20">
@@ -4529,7 +4487,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008321750191520039</v>
+        <v>0.008321749710926696</v>
       </c>
     </row>
     <row r="21">
@@ -4542,7 +4500,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00100757860224121</v>
+        <v>0.001007578536160736</v>
       </c>
     </row>
     <row r="22">
@@ -4555,7 +4513,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.000436344038057257</v>
+        <v>0.0004363440265109375</v>
       </c>
     </row>
     <row r="23">
@@ -4568,7 +4526,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03181626648292024</v>
+        <v>0.03181626648256497</v>
       </c>
     </row>
     <row r="24">
@@ -4581,7 +4539,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05143672399920973</v>
+        <v>0.05143672400098609</v>
       </c>
     </row>
     <row r="25">
@@ -4594,7 +4552,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01287451553242391</v>
+        <v>0.01287451553455554</v>
       </c>
     </row>
     <row r="26">
@@ -4607,7 +4565,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02600891724995336</v>
+        <v>0.02600891724924281</v>
       </c>
     </row>
     <row r="27">
@@ -4620,7 +4578,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03328988190887117</v>
+        <v>0.03328988190389737</v>
       </c>
     </row>
     <row r="28">
@@ -4633,7 +4591,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1130083885501065</v>
+        <v>0.1130083885392708</v>
       </c>
     </row>
     <row r="29">
@@ -4646,7 +4604,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07833339206868573</v>
+        <v>0.07833339206122503</v>
       </c>
     </row>
     <row r="30">
@@ -4659,7 +4617,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03895663835855601</v>
+        <v>0.03895663835500329</v>
       </c>
     </row>
     <row r="31">
@@ -4672,7 +4630,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0159363513364319</v>
+        <v>0.01593635133492199</v>
       </c>
     </row>
     <row r="32">
@@ -4685,7 +4643,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002131947896799602</v>
+        <v>0.002131947896444331</v>
       </c>
     </row>
     <row r="33">
@@ -4812,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06239683434614562</v>
+        <v>0.06239683256410444</v>
       </c>
     </row>
     <row r="3">
@@ -4825,7 +4783,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2637880901122713</v>
+        <v>0.2637880899230893</v>
       </c>
     </row>
     <row r="4">
@@ -4838,7 +4796,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1013508131290308</v>
+        <v>0.10135081316065</v>
       </c>
     </row>
     <row r="5">
@@ -4851,7 +4809,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09523630787153792</v>
+        <v>0.09523630790226889</v>
       </c>
     </row>
     <row r="6">
@@ -4864,7 +4822,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3301796229981946</v>
+        <v>0.3301796231095722</v>
       </c>
     </row>
     <row r="7">
@@ -4877,7 +4835,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06328526331742523</v>
+        <v>0.06328526335472873</v>
       </c>
     </row>
     <row r="8">
@@ -4890,7 +4848,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0159882199660899</v>
+        <v>0.01598821996440236</v>
       </c>
     </row>
     <row r="9">
@@ -4903,7 +4861,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03003481408629938</v>
+        <v>0.03003481408381248</v>
       </c>
     </row>
     <row r="10">
@@ -4916,7 +4874,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02524010333200266</v>
+        <v>0.02524010332987103</v>
       </c>
     </row>
     <row r="11">
@@ -4929,7 +4887,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001830645566869293</v>
+        <v>0.001830645566158751</v>
       </c>
     </row>
     <row r="12">
@@ -4942,7 +4900,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002913570194174042</v>
+        <v>0.002913570193996406</v>
       </c>
     </row>
     <row r="13">
@@ -4955,7 +4913,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02097746467466521</v>
+        <v>0.02097746467271122</v>
       </c>
     </row>
     <row r="14">
@@ -4968,7 +4926,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009597815721740233</v>
+        <v>0.009597815720319147</v>
       </c>
     </row>
     <row r="15">
@@ -4994,7 +4952,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002055457050254006</v>
+        <v>0.002055457049543463</v>
       </c>
     </row>
     <row r="17">
@@ -5007,7 +4965,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003359664753332936</v>
+        <v>0.003359664753066482</v>
       </c>
     </row>
     <row r="18">
@@ -5020,7 +4978,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004166652930237547</v>
+        <v>0.000416665292846119</v>
       </c>
     </row>
     <row r="19">
@@ -5033,7 +4991,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001535932057805667</v>
+        <v>0.001535931876617269</v>
       </c>
     </row>
     <row r="20">
@@ -5046,7 +5004,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.007498537567762753</v>
+        <v>0.007498537134953409</v>
       </c>
     </row>
     <row r="21">
@@ -5059,7 +5017,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001177107700200963</v>
+        <v>0.001177107623462348</v>
       </c>
     </row>
     <row r="22">
@@ -5072,7 +5030,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005769294215696164</v>
+        <v>0.0005769294062929475</v>
       </c>
     </row>
     <row r="23">
@@ -5098,7 +5056,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04061668261492457</v>
+        <v>0.04061668261581275</v>
       </c>
     </row>
     <row r="25">
@@ -5111,7 +5069,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01007402102679578</v>
+        <v>0.01007402102821686</v>
       </c>
     </row>
     <row r="26">
@@ -5124,7 +5082,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01324789184131703</v>
+        <v>0.01324789183954067</v>
       </c>
     </row>
     <row r="27">
@@ -5137,7 +5095,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0169494930048586</v>
+        <v>0.01694949300343751</v>
       </c>
     </row>
     <row r="28">
@@ -5150,7 +5108,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09963732992366303</v>
+        <v>0.09963732991433716</v>
       </c>
     </row>
     <row r="29">
@@ -5163,7 +5121,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0682421965722213</v>
+        <v>0.06824219656618169</v>
       </c>
     </row>
     <row r="30">
@@ -5176,7 +5134,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01984293796191139</v>
+        <v>0.01984293796013503</v>
       </c>
     </row>
     <row r="31">
@@ -5189,7 +5147,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01574990387638309</v>
+        <v>0.015749903874962</v>
       </c>
     </row>
     <row r="32">
@@ -5202,7 +5160,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002484869384389299</v>
+        <v>0.00248486938474457</v>
       </c>
     </row>
     <row r="33">
@@ -5215,7 +5173,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002047499854995749</v>
+        <v>0.0002047499862101176</v>
       </c>
     </row>
     <row r="34">
@@ -5329,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3917673761806308</v>
+        <v>0.3917673702063769</v>
       </c>
     </row>
     <row r="3">
@@ -5342,7 +5300,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.345510791177535</v>
+        <v>0.3455107911611243</v>
       </c>
     </row>
     <row r="4">
@@ -5355,7 +5313,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2406776861109701</v>
+        <v>0.2406776861006144</v>
       </c>
     </row>
     <row r="5">
@@ -5368,7 +5326,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2283526728695919</v>
+        <v>0.2283526728598645</v>
       </c>
     </row>
     <row r="6">
@@ -5381,7 +5339,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2221424170120999</v>
+        <v>0.2221424170026709</v>
       </c>
     </row>
     <row r="7">
@@ -5394,7 +5352,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1154622089826101</v>
+        <v>0.1154622089778665</v>
       </c>
     </row>
     <row r="8">
@@ -5407,7 +5365,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09434225437649632</v>
+        <v>0.09434225437271902</v>
       </c>
     </row>
     <row r="9">
@@ -5420,7 +5378,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07310690821421537</v>
+        <v>0.07310690821124718</v>
       </c>
     </row>
     <row r="10">
@@ -5433,7 +5391,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06669521489628287</v>
+        <v>0.06669521489356871</v>
       </c>
     </row>
     <row r="11">
@@ -5446,7 +5404,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0602457682497525</v>
+        <v>0.06024576824731515</v>
       </c>
     </row>
     <row r="12">
@@ -5459,7 +5417,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05540932147607611</v>
+        <v>0.05540932147382823</v>
       </c>
     </row>
     <row r="13">
@@ -5472,7 +5430,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04894775057364591</v>
+        <v>0.04894775057167379</v>
       </c>
     </row>
     <row r="14">
@@ -5485,7 +5443,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04244937941022155</v>
+        <v>0.04244937940851118</v>
       </c>
     </row>
     <row r="15">
@@ -5498,7 +5456,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02943771273047767</v>
+        <v>0.02943771272926614</v>
       </c>
     </row>
     <row r="16">
@@ -5511,7 +5469,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02290278385587441</v>
+        <v>0.02290278385493565</v>
       </c>
     </row>
     <row r="17">
@@ -5524,7 +5482,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01636633482057159</v>
+        <v>0.01636633481990462</v>
       </c>
     </row>
     <row r="18">
@@ -5537,7 +5495,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.009818404338032743</v>
+        <v>0.009818404337633424</v>
       </c>
     </row>
     <row r="19">
@@ -5550,7 +5508,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03622530042582329</v>
+        <v>0.03622529867948232</v>
       </c>
     </row>
     <row r="20">
@@ -5563,7 +5521,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02719347455540437</v>
+        <v>0.02719347410412038</v>
       </c>
     </row>
     <row r="21">
@@ -5576,7 +5534,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01813382383318159</v>
+        <v>0.01813382345161594</v>
       </c>
     </row>
     <row r="22">
@@ -5589,7 +5547,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00906910632417917</v>
+        <v>0.009069106294333867</v>
       </c>
     </row>
     <row r="23">
@@ -5602,7 +5560,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0956700824318812</v>
+        <v>0.09567008242702607</v>
       </c>
     </row>
     <row r="24">
@@ -5615,7 +5573,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08647455147057308</v>
+        <v>0.08647455146619652</v>
       </c>
     </row>
     <row r="25">
@@ -5628,7 +5586,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0433034348771914</v>
+        <v>0.04330343487500979</v>
       </c>
     </row>
     <row r="26">
@@ -5641,7 +5599,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1003572530682369</v>
+        <v>0.1003572530638294</v>
       </c>
     </row>
     <row r="27">
@@ -5654,7 +5612,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09401838928764809</v>
+        <v>0.09401838928351207</v>
       </c>
     </row>
     <row r="28">
@@ -5667,7 +5625,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08765976105402185</v>
+        <v>0.08765976105016304</v>
       </c>
     </row>
     <row r="29">
@@ -5680,7 +5638,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.08122231762749763</v>
+        <v>0.08122231762392848</v>
       </c>
     </row>
     <row r="30">
@@ -5693,7 +5651,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06820524705286195</v>
+        <v>0.06820524704987573</v>
       </c>
     </row>
     <row r="31">
@@ -5706,7 +5664,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04595001893239011</v>
+        <v>0.04595001893024576</v>
       </c>
     </row>
     <row r="32">
@@ -5719,7 +5677,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02955209013792831</v>
+        <v>0.02955209013652499</v>
       </c>
     </row>
     <row r="33">
@@ -5732,7 +5690,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.006574821388508012</v>
+        <v>0.006574821388206642</v>
       </c>
     </row>
     <row r="34">
@@ -5859,7 +5817,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9970322625851159</v>
+        <v>0.9970322626278557</v>
       </c>
     </row>
     <row r="4">
@@ -5872,7 +5830,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9829380001233781</v>
+        <v>0.9829380001704797</v>
       </c>
     </row>
     <row r="5">
@@ -5885,7 +5843,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9754564388774841</v>
+        <v>0.9754564389237357</v>
       </c>
     </row>
     <row r="6">
@@ -5898,7 +5856,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9680592669511621</v>
+        <v>0.9680592669965357</v>
       </c>
     </row>
     <row r="7">
@@ -5911,7 +5869,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9496582346558481</v>
+        <v>0.9496582346976516</v>
       </c>
     </row>
     <row r="8">
@@ -5924,7 +5882,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9461726774503437</v>
+        <v>0.9461726774884252</v>
       </c>
     </row>
     <row r="9">
@@ -5937,7 +5895,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9413285085593769</v>
+        <v>0.9413285085976643</v>
       </c>
     </row>
     <row r="10">
@@ -5950,7 +5908,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9350594559516666</v>
+        <v>0.9350594559902243</v>
       </c>
     </row>
     <row r="11">
@@ -5963,7 +5921,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9292445176960861</v>
+        <v>0.9292445177348954</v>
       </c>
     </row>
     <row r="12">
@@ -5976,7 +5934,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9283845137629438</v>
+        <v>0.9283845138017902</v>
       </c>
     </row>
     <row r="13">
@@ -5989,7 +5947,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9268849358533731</v>
+        <v>0.9268849358922842</v>
       </c>
     </row>
     <row r="14">
@@ -6002,7 +5960,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9207718579164861</v>
+        <v>0.9207718579556601</v>
       </c>
     </row>
     <row r="15">
@@ -6015,7 +5973,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9185051076030623</v>
+        <v>0.918505107642334</v>
       </c>
     </row>
     <row r="16">
@@ -6028,7 +5986,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9170927981190072</v>
+        <v>0.91709279815834</v>
       </c>
     </row>
     <row r="17">
@@ -6041,7 +5999,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9157248808518619</v>
+        <v>0.9157248808912537</v>
       </c>
     </row>
     <row r="18">
@@ -6054,7 +6012,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9136976712241046</v>
+        <v>0.9136976712635837</v>
       </c>
     </row>
     <row r="19">
@@ -6067,7 +6025,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.913090605384554</v>
+        <v>0.9130906054240593</v>
       </c>
     </row>
     <row r="20">
@@ -6080,7 +6038,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9965038990399577</v>
+        <v>0.9965038991184788</v>
       </c>
     </row>
     <row r="21">
@@ -6093,7 +6051,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9929263068066586</v>
+        <v>0.9929263070204744</v>
       </c>
     </row>
     <row r="22">
@@ -6106,7 +6064,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9922218038962698</v>
+        <v>0.9922218041418351</v>
       </c>
     </row>
     <row r="23">
@@ -6119,7 +6077,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9915843856910856</v>
+        <v>0.9915843859536414</v>
       </c>
     </row>
     <row r="24">
@@ -6132,7 +6090,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.979352275490137</v>
+        <v>0.9793522755371493</v>
       </c>
     </row>
     <row r="25">
@@ -6145,7 +6103,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9726811211897166</v>
+        <v>0.972681121236429</v>
       </c>
     </row>
     <row r="26">
@@ -6158,7 +6116,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9693561337093906</v>
+        <v>0.9693561337556468</v>
       </c>
     </row>
     <row r="27">
@@ -6171,7 +6129,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9477289691646698</v>
+        <v>0.9477289692065641</v>
       </c>
     </row>
     <row r="28">
@@ -6184,7 +6142,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9451652254638575</v>
+        <v>0.9451652255058732</v>
       </c>
     </row>
     <row r="29">
@@ -6197,7 +6155,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9337256510365635</v>
+        <v>0.9337256510791196</v>
       </c>
     </row>
     <row r="30">
@@ -6210,7 +6168,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9255075541868306</v>
+        <v>0.9255075542297755</v>
       </c>
     </row>
     <row r="31">
@@ -6223,7 +6181,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9219501360505403</v>
+        <v>0.9219501360936539</v>
       </c>
     </row>
     <row r="32">
@@ -6236,7 +6194,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9177889695098633</v>
+        <v>0.9177889695531768</v>
       </c>
     </row>
     <row r="33">
@@ -6249,7 +6207,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9168735491348616</v>
+        <v>0.9168735491782193</v>
       </c>
     </row>
     <row r="34">
@@ -6262,7 +6220,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9165899061400135</v>
+        <v>0.9165899061833844</v>
       </c>
     </row>
   </sheetData>
@@ -6311,7 +6269,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2435137831697229</v>
+        <v>-0.2435137803147311</v>
       </c>
     </row>
     <row r="3">
@@ -6324,7 +6282,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2213518099934871</v>
+        <v>-0.2213518097466251</v>
       </c>
     </row>
     <row r="4">
@@ -6337,7 +6295,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1709400738192418</v>
+        <v>-0.1709400739126068</v>
       </c>
     </row>
     <row r="5">
@@ -6350,7 +6308,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1627735348417932</v>
+        <v>-0.1627735349337686</v>
       </c>
     </row>
     <row r="6">
@@ -6363,7 +6321,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1596992798299628</v>
+        <v>-0.1596992799221537</v>
       </c>
     </row>
     <row r="7">
@@ -6376,7 +6334,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.05531741163772375</v>
+        <v>-0.05531741173515235</v>
       </c>
     </row>
     <row r="8">
@@ -6389,7 +6347,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.04471294977771311</v>
+        <v>-0.044712949775306</v>
       </c>
     </row>
     <row r="9">
@@ -6402,7 +6360,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.03406728293729653</v>
+        <v>-0.03406728293544074</v>
       </c>
     </row>
     <row r="10">
@@ -6415,7 +6373,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.03191344829987672</v>
+        <v>-0.03191344829814016</v>
       </c>
     </row>
     <row r="11">
@@ -6428,7 +6386,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.02973909574314684</v>
+        <v>-0.02973909574153771</v>
       </c>
     </row>
     <row r="12">
@@ -6441,7 +6399,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.02649173510594549</v>
+        <v>-0.02649173510450215</v>
       </c>
     </row>
     <row r="13">
@@ -6454,7 +6412,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.02269564667579821</v>
+        <v>-0.02269564667454594</v>
       </c>
     </row>
     <row r="14">
@@ -6467,7 +6425,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.01886399381457914</v>
+        <v>-0.01886399381352778</v>
       </c>
     </row>
     <row r="15">
@@ -6480,7 +6438,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01007517541624157</v>
+        <v>-0.01007517541563493</v>
       </c>
     </row>
     <row r="16">
@@ -6493,7 +6451,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.008940852524551179</v>
+        <v>-0.00894085252403802</v>
       </c>
     </row>
     <row r="17">
@@ -6506,7 +6464,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.006710175637690517</v>
+        <v>-0.006710175637310224</v>
       </c>
     </row>
     <row r="18">
@@ -6519,7 +6477,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.004465717107610914</v>
+        <v>-0.004465717107361267</v>
       </c>
     </row>
     <row r="19">
@@ -6532,7 +6490,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01614665280470209</v>
+        <v>-0.01614665097024037</v>
       </c>
     </row>
     <row r="20">
@@ -6545,7 +6503,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0121331990607549</v>
+        <v>-0.0121331979625836</v>
       </c>
     </row>
     <row r="21">
@@ -6558,7 +6516,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.008094692994146238</v>
+        <v>-0.008094692258155536</v>
       </c>
     </row>
     <row r="22">
@@ -6571,7 +6529,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.004050256746497897</v>
+        <v>-0.004050256479287632</v>
       </c>
     </row>
     <row r="23">
@@ -6584,7 +6542,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.04635766603766971</v>
+        <v>-0.04635766604963305</v>
       </c>
     </row>
     <row r="24">
@@ -6597,7 +6555,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.04126270136215063</v>
+        <v>-0.04126270137466804</v>
       </c>
     </row>
     <row r="25">
@@ -6610,7 +6568,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.02068316275836198</v>
+        <v>-0.02068316277163813</v>
       </c>
     </row>
     <row r="26">
@@ -6623,7 +6581,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1022906232137631</v>
+        <v>-0.1022906232086462</v>
       </c>
     </row>
     <row r="27">
@@ -6636,7 +6594,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.09967191020750424</v>
+        <v>-0.0996719102025381</v>
       </c>
     </row>
     <row r="28">
@@ -6649,7 +6607,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.09705232461899993</v>
+        <v>-0.09705232461416829</v>
       </c>
     </row>
     <row r="29">
@@ -6662,7 +6620,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.09494544721412113</v>
+        <v>-0.09494544720940788</v>
       </c>
     </row>
     <row r="30">
@@ -6675,7 +6633,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.08747054176835306</v>
+        <v>-0.08747054176403796</v>
       </c>
     </row>
     <row r="31">
@@ -6688,7 +6646,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.02258117951816813</v>
+        <v>-0.02258117951695168</v>
       </c>
     </row>
     <row r="32">
@@ -6701,7 +6659,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.01507164804879091</v>
+        <v>-0.01507164804798841</v>
       </c>
     </row>
     <row r="33">
@@ -6714,7 +6672,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.004320434446475868</v>
+        <v>-0.004320434446250798</v>
       </c>
     </row>
     <row r="34">
@@ -6828,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2127806396330867</v>
+        <v>0.2127806335615915</v>
       </c>
     </row>
     <row r="3">
@@ -6841,7 +6799,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.168374330607519</v>
+        <v>0.1683743304868922</v>
       </c>
     </row>
     <row r="4">
@@ -6854,7 +6812,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08714625742905849</v>
+        <v>0.08714625745599339</v>
       </c>
     </row>
     <row r="5">
@@ -6867,7 +6825,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07864016685157929</v>
+        <v>0.07864016687707906</v>
       </c>
     </row>
     <row r="6">
@@ -6880,7 +6838,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07485111341418646</v>
+        <v>0.07485111343944297</v>
       </c>
     </row>
     <row r="7">
@@ -6893,7 +6851,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0163915377334413</v>
+        <v>0.01639153774312489</v>
       </c>
     </row>
     <row r="8">
@@ -6906,7 +6864,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01089970883866383</v>
+        <v>0.01089970883773586</v>
       </c>
     </row>
     <row r="9">
@@ -6919,7 +6877,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006505199795371525</v>
+        <v>0.006505199794811093</v>
       </c>
     </row>
     <row r="10">
@@ -6932,7 +6890,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005466719872450256</v>
+        <v>0.005466719871977374</v>
       </c>
     </row>
     <row r="11">
@@ -6945,7 +6903,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004513966407622942</v>
+        <v>0.004513966407233552</v>
       </c>
     </row>
     <row r="12">
@@ -6958,7 +6916,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003772004935362735</v>
+        <v>0.003772004935037154</v>
       </c>
     </row>
     <row r="13">
@@ -6971,7 +6929,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002910974664252523</v>
+        <v>0.00291097466400262</v>
       </c>
     </row>
     <row r="14">
@@ -6984,7 +6942,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002157800074949421</v>
+        <v>0.002157800074764547</v>
       </c>
     </row>
     <row r="15">
@@ -6997,7 +6955,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0009680880904701656</v>
+        <v>0.0009680880903866122</v>
       </c>
     </row>
     <row r="16">
@@ -7010,7 +6968,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0006044763522146746</v>
+        <v>0.0006044763521624979</v>
       </c>
     </row>
     <row r="17">
@@ -7023,7 +6981,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0003128833725477095</v>
+        <v>0.000312883372520774</v>
       </c>
     </row>
     <row r="18">
@@ -7036,7 +6994,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.000116343693030309</v>
+        <v>0.0001163436930202379</v>
       </c>
     </row>
     <row r="19">
@@ -7049,7 +7007,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001572986787736747</v>
+        <v>0.001572986601972468</v>
       </c>
     </row>
     <row r="20">
@@ -7062,7 +7020,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0008866995778433286</v>
+        <v>0.0008866995266507085</v>
       </c>
     </row>
     <row r="21">
@@ -7075,7 +7033,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.000394359621482345</v>
+        <v>0.0003943595957286195</v>
       </c>
     </row>
     <row r="22">
@@ -7088,7 +7046,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>9.865326923181834e-05</v>
+        <v>9.865326652593761e-05</v>
       </c>
     </row>
     <row r="23">
@@ -7101,7 +7059,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01130179787298306</v>
+        <v>0.01130179787316326</v>
       </c>
     </row>
     <row r="24">
@@ -7114,7 +7072,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00918045857573882</v>
+        <v>0.009180458576014903</v>
       </c>
     </row>
     <row r="25">
@@ -7127,7 +7085,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002302980693852048</v>
+        <v>0.002302980694212291</v>
       </c>
     </row>
     <row r="26">
@@ -7140,7 +7098,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02053494984086221</v>
+        <v>0.02053494983893074</v>
       </c>
     </row>
     <row r="27">
@@ -7153,7 +7111,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01877394720865653</v>
+        <v>0.01877394720688884</v>
       </c>
     </row>
     <row r="28">
@@ -7166,7 +7124,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01710338742199995</v>
+        <v>0.01710338742038558</v>
       </c>
     </row>
     <row r="29">
@@ -7179,7 +7137,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01561170282747157</v>
+        <v>0.01561170282599678</v>
       </c>
     </row>
     <row r="30">
@@ -7192,7 +7150,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01230305140279113</v>
+        <v>0.01230305140162889</v>
       </c>
     </row>
     <row r="31">
@@ -7205,7 +7163,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002621313908318746</v>
+        <v>0.002621313908066742</v>
       </c>
     </row>
     <row r="32">
@@ -7218,7 +7176,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001100480606426863</v>
+        <v>0.001100480606319731</v>
       </c>
     </row>
     <row r="33">
@@ -7231,7 +7189,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>6.189443009707766e-05</v>
+        <v>6.189443009116995e-05</v>
       </c>
     </row>
     <row r="34">
@@ -7345,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.210364146193187</v>
+        <v>0.2103641431919156</v>
       </c>
     </row>
     <row r="3">
@@ -7358,7 +7316,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1871300820573046</v>
+        <v>0.1871300819902728</v>
       </c>
     </row>
     <row r="4">
@@ -7371,7 +7329,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1346263394544303</v>
+        <v>0.1346263394752353</v>
       </c>
     </row>
     <row r="5">
@@ -7384,7 +7342,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1278874359290486</v>
+        <v>0.1278874359497829</v>
       </c>
     </row>
     <row r="6">
@@ -7397,7 +7355,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1247684556097568</v>
+        <v>0.1247684556308066</v>
       </c>
     </row>
     <row r="7">
@@ -7410,7 +7368,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05838691323808268</v>
+        <v>0.05838691325532923</v>
       </c>
     </row>
     <row r="8">
@@ -7423,7 +7381,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04761163717622964</v>
+        <v>0.04761163717420287</v>
       </c>
     </row>
     <row r="9">
@@ -7436,7 +7394,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03678205477455373</v>
+        <v>0.03678205477296932</v>
       </c>
     </row>
     <row r="10">
@@ -7449,7 +7407,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03371856449399525</v>
+        <v>0.03371856449253689</v>
       </c>
     </row>
     <row r="11">
@@ -7462,7 +7420,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03063972255104012</v>
+        <v>0.03063972254971858</v>
       </c>
     </row>
     <row r="12">
@@ -7475,7 +7433,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02800862526816321</v>
+        <v>0.02800862526695442</v>
       </c>
     </row>
     <row r="13">
@@ -7488,7 +7446,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02460508557028881</v>
+        <v>0.02460508556923266</v>
       </c>
     </row>
     <row r="14">
@@ -7501,7 +7459,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02118416102263371</v>
+        <v>0.02118416102172621</v>
       </c>
     </row>
     <row r="15">
@@ -7514,7 +7472,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01418936974550752</v>
+        <v>0.0141893697448952</v>
       </c>
     </row>
     <row r="16">
@@ -7527,7 +7485,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01121231588569698</v>
+        <v>0.01121231588521308</v>
       </c>
     </row>
     <row r="17">
@@ -7540,7 +7498,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00806671863364534</v>
+        <v>0.008066718633298116</v>
       </c>
     </row>
     <row r="18">
@@ -7553,7 +7511,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.004919003024367952</v>
+        <v>0.00491900302415505</v>
       </c>
     </row>
     <row r="19">
@@ -7566,7 +7524,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01808706937422947</v>
+        <v>0.01808706830621939</v>
       </c>
     </row>
     <row r="20">
@@ -7579,7 +7537,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01357981701014911</v>
+        <v>0.01357981661814124</v>
       </c>
     </row>
     <row r="21">
@@ -7592,7 +7550,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.009056322665798049</v>
+        <v>0.00905632237008566</v>
       </c>
     </row>
     <row r="22">
@@ -7605,7 +7563,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.004529616226778944</v>
+        <v>0.004529616164659354</v>
       </c>
     </row>
     <row r="23">
@@ -7618,7 +7576,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04848187805981254</v>
+        <v>0.04848187806019905</v>
       </c>
     </row>
     <row r="24">
@@ -7631,7 +7589,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04369561483404848</v>
+        <v>0.04369561483470551</v>
       </c>
     </row>
     <row r="25">
@@ -7644,7 +7602,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02188521490458546</v>
+        <v>0.02188521490629715</v>
       </c>
     </row>
     <row r="26">
@@ -7657,7 +7615,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06535103801190249</v>
+        <v>0.0653510380088291</v>
       </c>
     </row>
     <row r="27">
@@ -7670,7 +7628,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06248610627442495</v>
+        <v>0.0624861062714832</v>
       </c>
     </row>
     <row r="28">
@@ -7683,7 +7641,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.05964124952539751</v>
+        <v>0.05964124952258277</v>
       </c>
     </row>
     <row r="29">
@@ -7696,7 +7654,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.05698109684675056</v>
+        <v>0.05698109684405914</v>
       </c>
     </row>
     <row r="30">
@@ -7709,7 +7667,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.05058387390680028</v>
+        <v>0.05058387390441101</v>
       </c>
     </row>
     <row r="31">
@@ -7722,7 +7680,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02334883321135835</v>
+        <v>0.02334883321023601</v>
       </c>
     </row>
     <row r="32">
@@ -7735,7 +7693,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01512853462900357</v>
+        <v>0.01512853462826719</v>
       </c>
     </row>
     <row r="33">
@@ -7748,7 +7706,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003587826647922876</v>
+        <v>0.003587826647751651</v>
       </c>
     </row>
     <row r="34">
@@ -7813,1401 +7771,6 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Variable_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Index: Buses</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3917673761806236</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.009999998193889886</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.008999990857896536</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.0119999906026939</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.00599999046404693</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.005999990309272483</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.01999999029590375</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.01999999026458203</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.00599999023553878</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.005999990213538498</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.004499990210246765</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.005999990204716989</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.005999990186946928</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-0.01199999018167012</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.005999990177955711</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.005999990174473585</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-0.005999990170169369</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.008999990168797913</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.008999994836360638</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.008999992130670365</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.008999992262151847</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-0.008999991829782695</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-0.008999990716332083</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-0.0419999905506151</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-0.04199999049287466</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.005999990298000421</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.005999990284340051</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.005999990244114656</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.0119999902216475</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.01999999021151791</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-0.01499999019909309</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-0.0209999901967101</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.005999990196073744</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Variable_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Index: Buses</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2435137831697177</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.005999996146722144</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.003999991321148717</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.007999990904635971</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.002999990687949053</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.001999990446625617</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.009999990336846634</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.009999990399424345</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.001999990367395598</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.001999990341198382</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.002999990337085433</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.00349999033030494</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.003499990308504912</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-0.007999990302121321</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.0009999902986326051</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.001999990294848115</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-0.0019999902898677</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.003999990288095058</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.003999995786640006</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.00399999387383226</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.003999993789347618</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-0.003999993430597803</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-0.004999991150704154</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-0.01999999093452565</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-0.01999999084002562</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.00249999042331676</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.002499990395008068</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.001999990314860242</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.006999990272794172</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.05999999025340556</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-0.006999990244230671</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-0.009999990242333239</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.003999990241724475</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Variable_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Index: Buses</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>78.35347523612471</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9257,7 +7820,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.236425136224451e-34</v>
       </c>
     </row>
     <row r="3">
@@ -9270,7 +7833,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002527475333847239</v>
+        <v>0.0002527475344727636</v>
       </c>
     </row>
     <row r="4">
@@ -9283,7 +7846,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001676236845580589</v>
+        <v>0.001676236839151363</v>
       </c>
     </row>
     <row r="5">
@@ -9296,7 +7859,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002821342277611122</v>
+        <v>0.002821342273388924</v>
       </c>
     </row>
     <row r="6">
@@ -9309,7 +7872,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003984320651633476</v>
+        <v>0.003984320649707974</v>
       </c>
     </row>
     <row r="7">
@@ -9322,7 +7885,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002336168310909573</v>
+        <v>0.002336168314433021</v>
       </c>
     </row>
     <row r="8">
@@ -9335,7 +7898,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.001683797113077805</v>
+        <v>-0.001683797107974191</v>
       </c>
     </row>
     <row r="9">
@@ -9348,7 +7911,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.001054243069596804</v>
+        <v>-0.001054243064546819</v>
       </c>
     </row>
     <row r="10">
@@ -9361,7 +7924,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.002329756668768628</v>
+        <v>-0.002329756663612773</v>
       </c>
     </row>
     <row r="11">
@@ -9374,7 +7937,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.003421104849693895</v>
+        <v>-0.003421104844446293</v>
       </c>
     </row>
     <row r="12">
@@ -9387,7 +7950,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.003294517524587577</v>
+        <v>-0.003294517519350889</v>
       </c>
     </row>
     <row r="13">
@@ -9400,7 +7963,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.003093943747582643</v>
+        <v>-0.003093943742363351</v>
       </c>
     </row>
     <row r="14">
@@ -9413,7 +7976,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.004687736712819995</v>
+        <v>-0.004687736707467707</v>
       </c>
     </row>
     <row r="15">
@@ -9426,7 +7989,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.00606097771135723</v>
+        <v>-0.006060977705888378</v>
       </c>
     </row>
     <row r="16">
@@ -9439,7 +8002,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.006718665880155653</v>
+        <v>-0.006718665874630875</v>
       </c>
     </row>
     <row r="17">
@@ -9452,7 +8015,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.007124536965712702</v>
+        <v>-0.007124536960153066</v>
       </c>
     </row>
     <row r="18">
@@ -9465,7 +8028,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.008473121138889289</v>
+        <v>-0.00847312113321335</v>
       </c>
     </row>
     <row r="19">
@@ -9478,7 +8041,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.008640490733763478</v>
+        <v>-0.008640490728072986</v>
       </c>
     </row>
     <row r="20">
@@ -9491,7 +8054,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>6.371937595269212e-05</v>
+        <v>6.371937532224676e-05</v>
       </c>
     </row>
     <row r="21">
@@ -9504,7 +8067,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.001105277099436712</v>
+        <v>-0.001105277165189433</v>
       </c>
     </row>
     <row r="22">
@@ -9517,7 +8080,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.001443135664879428</v>
+        <v>-0.001443135738033367</v>
       </c>
     </row>
     <row r="23">
@@ -9530,7 +8093,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.001798267578459109</v>
+        <v>-0.001798267661700164</v>
       </c>
     </row>
     <row r="24">
@@ -9543,7 +8106,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001135854392224924</v>
+        <v>0.00113585438623753</v>
       </c>
     </row>
     <row r="25">
@@ -9556,7 +8119,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0004128442136906683</v>
+        <v>-0.0004128442187243707</v>
       </c>
     </row>
     <row r="26">
@@ -9569,7 +8132,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0011755639606825</v>
+        <v>-0.001175563964833264</v>
       </c>
     </row>
     <row r="27">
@@ -9582,7 +8145,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00302481093075085</v>
+        <v>0.003024810934212416</v>
       </c>
     </row>
     <row r="28">
@@ -9595,7 +8158,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.004004874349658561</v>
+        <v>0.004004874353031968</v>
       </c>
     </row>
     <row r="29">
@@ -9608,7 +8171,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.005452553918177471</v>
+        <v>0.005452553921422694</v>
       </c>
     </row>
     <row r="30">
@@ -9621,7 +8184,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.006812257638029301</v>
+        <v>0.00681225764115109</v>
       </c>
     </row>
     <row r="31">
@@ -9634,7 +8197,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.008649584760258844</v>
+        <v>0.008649584763209555</v>
       </c>
     </row>
     <row r="32">
@@ -9647,7 +8210,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.007176389254245208</v>
+        <v>0.007176389257336786</v>
       </c>
     </row>
     <row r="33">
@@ -9660,7 +8223,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.006774217842355093</v>
+        <v>0.006774217845485935</v>
       </c>
     </row>
     <row r="34">
@@ -9673,7 +8236,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006639305911852455</v>
+        <v>0.006639305914996294</v>
       </c>
     </row>
   </sheetData>
@@ -9722,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7.084194198954893e-33</v>
       </c>
     </row>
     <row r="3">
@@ -9735,7 +8298,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01448136694528656</v>
+        <v>0.01448136700762664</v>
       </c>
     </row>
     <row r="4">
@@ -9748,7 +8311,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09604129671609003</v>
+        <v>0.09604129634772256</v>
       </c>
     </row>
     <row r="5">
@@ -9761,7 +8324,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1616510050689443</v>
+        <v>0.1616510048270302</v>
       </c>
     </row>
     <row r="6">
@@ -9774,7 +8337,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2282847575654121</v>
+        <v>0.228284757455089</v>
       </c>
     </row>
     <row r="7">
@@ -9787,7 +8350,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1338525844473248</v>
+        <v>0.1338525846492035</v>
       </c>
     </row>
     <row r="8">
@@ -9800,7 +8363,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.09647446813567044</v>
+        <v>-0.0964744678432549</v>
       </c>
     </row>
     <row r="9">
@@ -9813,7 +8376,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0604036784688136</v>
+        <v>-0.06040367817947077</v>
       </c>
     </row>
     <row r="10">
@@ -9826,7 +8389,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1334852244129005</v>
+        <v>-0.1334852241174917</v>
       </c>
     </row>
     <row r="11">
@@ -9839,7 +8402,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.196014869159198</v>
+        <v>-0.1960148688585326</v>
       </c>
     </row>
     <row r="12">
@@ -9852,7 +8415,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1887619496907556</v>
+        <v>-0.1887619493907154</v>
       </c>
     </row>
     <row r="13">
@@ -9865,7 +8428,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1772699187873747</v>
+        <v>-0.1772699184883313</v>
       </c>
     </row>
     <row r="14">
@@ -9878,7 +8441,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2685875291131158</v>
+        <v>-0.2685875288064523</v>
       </c>
     </row>
     <row r="15">
@@ -9891,7 +8454,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3472684425836302</v>
+        <v>-0.347268442270288</v>
       </c>
     </row>
     <row r="16">
@@ -9904,7 +8467,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3849511988914674</v>
+        <v>-0.384951198574921</v>
       </c>
     </row>
     <row r="17">
@@ -9917,7 +8480,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4082058991202795</v>
+        <v>-0.4082058988017359</v>
       </c>
     </row>
     <row r="18">
@@ -9930,7 +8493,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4854740805614377</v>
+        <v>-0.4854740802362303</v>
       </c>
     </row>
     <row r="19">
@@ -9943,7 +8506,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.4950636519665431</v>
+        <v>-0.495063651640502</v>
       </c>
     </row>
     <row r="20">
@@ -9956,7 +8519,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003650851315296648</v>
+        <v>0.003650851279174789</v>
       </c>
     </row>
     <row r="21">
@@ -9969,7 +8532,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.06332771299018504</v>
+        <v>-0.0633277167575384</v>
       </c>
     </row>
     <row r="22">
@@ -9982,7 +8545,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.08268558286239719</v>
+        <v>-0.08268558705380911</v>
       </c>
     </row>
     <row r="23">
@@ -9995,7 +8558,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1030331426809176</v>
+        <v>-0.1030331474502787</v>
       </c>
     </row>
     <row r="24">
@@ -10008,7 +8571,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0650796628158854</v>
+        <v>0.06507966247283295</v>
       </c>
     </row>
     <row r="25">
@@ -10021,7 +8584,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.02365423104087237</v>
+        <v>-0.02365423132928228</v>
       </c>
     </row>
     <row r="26">
@@ -10034,7 +8597,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.06735485349479027</v>
+        <v>-0.06735485373261157</v>
       </c>
     </row>
     <row r="27">
@@ -10047,7 +8610,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.173308900157062</v>
+        <v>0.1733089003553951</v>
       </c>
     </row>
     <row r="28">
@@ -10060,7 +8623,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2294623977156359</v>
+        <v>0.2294623979089178</v>
       </c>
     </row>
     <row r="29">
@@ -10073,7 +8636,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3124083270790895</v>
+        <v>0.312408327265027</v>
       </c>
     </row>
     <row r="30">
@@ -10086,7 +8649,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3903136116148377</v>
+        <v>0.3903136117937031</v>
       </c>
     </row>
     <row r="31">
@@ -10099,7 +8662,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4955847013035077</v>
+        <v>0.4955847014725711</v>
       </c>
     </row>
     <row r="32">
@@ -10112,7 +8675,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4111768164112867</v>
+        <v>0.4111768165884211</v>
       </c>
     </row>
     <row r="33">
@@ -10125,7 +8688,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3881340918691656</v>
+        <v>0.3881340920485497</v>
       </c>
     </row>
     <row r="34">
@@ -10138,7 +8701,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3804042076454022</v>
+        <v>0.3804042078255309</v>
       </c>
     </row>
   </sheetData>
@@ -10187,7 +8750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3917673761806236</v>
+        <v>0.3917673702063921</v>
       </c>
     </row>
     <row r="3">
@@ -10200,7 +8763,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.806110113327732e-09</v>
+        <v>6.004507793661424e-09</v>
       </c>
     </row>
     <row r="4">
@@ -10213,7 +8776,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.142103464002681e-09</v>
+        <v>9.142265474992319e-09</v>
       </c>
     </row>
     <row r="5">
@@ -10226,7 +8789,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9.397306100833177e-09</v>
+        <v>9.397309506398162e-09</v>
       </c>
     </row>
     <row r="6">
@@ -10239,7 +8802,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.535953070033157e-09</v>
+        <v>9.535955161496049e-09</v>
       </c>
     </row>
     <row r="7">
@@ -10252,7 +8815,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9.69072751696626e-09</v>
+        <v>9.690727631519336e-09</v>
       </c>
     </row>
     <row r="8">
@@ -10265,7 +8828,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>9.704096249890378e-09</v>
+        <v>9.704096320966337e-09</v>
       </c>
     </row>
     <row r="9">
@@ -10278,7 +8841,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9.735417976073627e-09</v>
+        <v>9.735417988226576e-09</v>
       </c>
     </row>
     <row r="10">
@@ -10291,7 +8854,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>9.764461220306588e-09</v>
+        <v>9.76446122002574e-09</v>
       </c>
     </row>
     <row r="11">
@@ -10304,7 +8867,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>9.786461502035522e-09</v>
+        <v>9.786461487738024e-09</v>
       </c>
     </row>
     <row r="12">
@@ -10317,7 +8880,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>9.789753234706102e-09</v>
+        <v>9.789753216948004e-09</v>
       </c>
     </row>
     <row r="13">
@@ -10330,7 +8893,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>9.795283011263712e-09</v>
+        <v>9.795297772224868e-09</v>
       </c>
     </row>
     <row r="14">
@@ -10343,7 +8906,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>9.813053072291361e-09</v>
+        <v>9.813053066750141e-09</v>
       </c>
     </row>
     <row r="15">
@@ -10356,7 +8919,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>9.818329881306828e-09</v>
+        <v>9.818329879737258e-09</v>
       </c>
     </row>
     <row r="16">
@@ -10369,7 +8932,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>9.822044289031317e-09</v>
+        <v>9.822044470376766e-09</v>
       </c>
     </row>
     <row r="17">
@@ -10382,7 +8945,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>9.825526414641887e-09</v>
+        <v>9.825526413982649e-09</v>
       </c>
     </row>
     <row r="18">
@@ -10395,7 +8958,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>9.829830630795878e-09</v>
+        <v>9.829830630684931e-09</v>
       </c>
     </row>
     <row r="19">
@@ -10408,7 +8971,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>9.831202087330489e-09</v>
+        <v>9.831202087200317e-09</v>
       </c>
     </row>
     <row r="20">
@@ -10421,7 +8984,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>5.163639360827272e-09</v>
+        <v>6.453410287784528e-09</v>
       </c>
     </row>
     <row r="21">
@@ -10434,7 +8997,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>7.869329633632568e-09</v>
+        <v>7.936759890964628e-09</v>
       </c>
     </row>
     <row r="22">
@@ -10447,7 +9010,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>7.737848152177133e-09</v>
+        <v>8.084970166734109e-09</v>
       </c>
     </row>
     <row r="23">
@@ -10460,7 +9023,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>8.170217304753858e-09</v>
+        <v>8.197571085531273e-09</v>
       </c>
     </row>
     <row r="24">
@@ -10473,7 +9036,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>9.283667915402019e-09</v>
+        <v>9.283664977902124e-09</v>
       </c>
     </row>
     <row r="25">
@@ -10486,7 +9049,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>9.449384892795354e-09</v>
+        <v>9.449410021305022e-09</v>
       </c>
     </row>
     <row r="26">
@@ -10499,7 +9062,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>9.507125339878515e-09</v>
+        <v>9.507137322123574e-09</v>
       </c>
     </row>
     <row r="27">
@@ -10512,7 +9075,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>9.701999579434983e-09</v>
+        <v>9.701999656461075e-09</v>
       </c>
     </row>
     <row r="28">
@@ -10525,7 +9088,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>9.715659948886922e-09</v>
+        <v>9.715659986019767e-09</v>
       </c>
     </row>
     <row r="29">
@@ -10538,7 +9101,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>9.755885344158711e-09</v>
+        <v>9.755885343950258e-09</v>
       </c>
     </row>
     <row r="30">
@@ -10551,7 +9114,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>9.778352497806974e-09</v>
+        <v>9.77835258118427e-09</v>
       </c>
     </row>
     <row r="31">
@@ -10564,7 +9127,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>9.788482090252731e-09</v>
+        <v>9.78848208987666e-09</v>
       </c>
     </row>
     <row r="32">
@@ -10577,7 +9140,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>9.800906908853507e-09</v>
+        <v>9.800906902478989e-09</v>
       </c>
     </row>
     <row r="33">
@@ -10590,7 +9153,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>9.803289894939054e-09</v>
+        <v>9.803325270063581e-09</v>
       </c>
     </row>
     <row r="34">
@@ -10603,7 +9166,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>9.803926255799764e-09</v>
+        <v>9.803926253655928e-09</v>
       </c>
     </row>
   </sheetData>
@@ -10652,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2435137831697177</v>
+        <v>0.2435137803147196</v>
       </c>
     </row>
     <row r="3">
@@ -10665,7 +9228,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.853277855818818e-09</v>
+        <v>4.625488445045843e-09</v>
       </c>
     </row>
     <row r="4">
@@ -10678,7 +9241,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>8.678851283574292e-09</v>
+        <v>9.024894684423439e-09</v>
       </c>
     </row>
     <row r="5">
@@ -10691,7 +9254,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9.095364030144984e-09</v>
+        <v>9.093688406074667e-09</v>
       </c>
     </row>
     <row r="6">
@@ -10704,7 +9267,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.312050946827129e-09</v>
+        <v>9.312134571178393e-09</v>
       </c>
     </row>
     <row r="7">
@@ -10717,7 +9280,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9.553374382828561e-09</v>
+        <v>9.553386593824636e-09</v>
       </c>
     </row>
     <row r="8">
@@ -10730,7 +9293,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>9.663153366132922e-09</v>
+        <v>9.568192322083408e-09</v>
       </c>
     </row>
     <row r="9">
@@ -10743,7 +9306,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9.600575655870065e-09</v>
+        <v>9.600586480542699e-09</v>
       </c>
     </row>
     <row r="10">
@@ -10756,7 +9319,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>9.632604402658632e-09</v>
+        <v>9.632604488912212e-09</v>
       </c>
     </row>
     <row r="11">
@@ -10769,7 +9332,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>9.658801618381686e-09</v>
+        <v>9.65880162914608e-09</v>
       </c>
     </row>
     <row r="12">
@@ -10782,7 +9345,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>9.662914566520546e-09</v>
+        <v>9.662914587512272e-09</v>
       </c>
     </row>
     <row r="13">
@@ -10795,7 +9358,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>9.669695060103326e-09</v>
+        <v>9.669695098800127e-09</v>
       </c>
     </row>
     <row r="14">
@@ -10808,7 +9371,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>9.691495088719966e-09</v>
+        <v>9.69149513865033e-09</v>
       </c>
     </row>
     <row r="15">
@@ -10821,7 +9384,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>9.697878679285776e-09</v>
+        <v>9.697878681637268e-09</v>
       </c>
     </row>
     <row r="16">
@@ -10834,7 +9397,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>9.701367395056142e-09</v>
+        <v>9.701368724497214e-09</v>
       </c>
     </row>
     <row r="17">
@@ -10847,7 +9410,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>9.705151885146004e-09</v>
+        <v>9.705151915488464e-09</v>
       </c>
     </row>
     <row r="18">
@@ -10860,7 +9423,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>9.710132300255248e-09</v>
+        <v>9.710132337626641e-09</v>
       </c>
     </row>
     <row r="19">
@@ -10873,7 +9436,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>9.711904942491723e-09</v>
+        <v>9.71190497638014e-09</v>
       </c>
     </row>
     <row r="20">
@@ -10886,7 +9449,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>4.213359994603599e-09</v>
+        <v>4.946841101676623e-09</v>
       </c>
     </row>
     <row r="21">
@@ -10899,7 +9462,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>6.126167740054815e-09</v>
+        <v>6.485448067203412e-09</v>
       </c>
     </row>
     <row r="22">
@@ -10912,7 +9475,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>6.210652382458593e-09</v>
+        <v>6.67494018435757e-09</v>
       </c>
     </row>
     <row r="23">
@@ -10925,7 +9488,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>6.569402197554306e-09</v>
+        <v>6.833998555975447e-09</v>
       </c>
     </row>
     <row r="24">
@@ -10938,7 +9501,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>8.849295846762744e-09</v>
+        <v>8.849651247275866e-09</v>
       </c>
     </row>
     <row r="25">
@@ -10951,7 +9514,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>9.06547435486459e-09</v>
+        <v>9.065464970136255e-09</v>
       </c>
     </row>
     <row r="26">
@@ -10964,7 +9527,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>9.159974380027224e-09</v>
+        <v>9.146321092175854e-09</v>
       </c>
     </row>
     <row r="27">
@@ -10977,7 +9540,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>9.576683239798085e-09</v>
+        <v>9.576689382622885e-09</v>
       </c>
     </row>
     <row r="28">
@@ -10990,7 +9553,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>9.60499193248756e-09</v>
+        <v>9.604993813130988e-09</v>
       </c>
     </row>
     <row r="29">
@@ -11003,7 +9566,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>9.685139758279811e-09</v>
+        <v>9.685139761025741e-09</v>
       </c>
     </row>
     <row r="30">
@@ -11016,7 +9579,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>9.72720582861803e-09</v>
+        <v>9.727205829585891e-09</v>
       </c>
     </row>
     <row r="31">
@@ -11029,7 +9592,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>9.74659443708183e-09</v>
+        <v>9.746594436971851e-09</v>
       </c>
     </row>
     <row r="32">
@@ -11042,7 +9605,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>9.755769329485246e-09</v>
+        <v>9.755769328698041e-09</v>
       </c>
     </row>
     <row r="33">
@@ -11055,7 +9618,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>9.75766676217442e-09</v>
+        <v>9.757666773277082e-09</v>
       </c>
     </row>
     <row r="34">
@@ -11068,7 +9631,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>9.75827552530683e-09</v>
+        <v>9.758275526275375e-09</v>
       </c>
     </row>
   </sheetData>
@@ -11130,7 +9693,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>12.62242844432757</v>
+        <v>12.62242844486865</v>
       </c>
     </row>
     <row r="4">
@@ -11143,7 +9706,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.44399508156197</v>
+        <v>12.44399508215827</v>
       </c>
     </row>
     <row r="5">
@@ -11156,7 +9719,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>12.34927851618895</v>
+        <v>12.34927851677449</v>
       </c>
     </row>
     <row r="6">
@@ -11169,7 +9732,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>12.25563031960171</v>
+        <v>12.25563032017614</v>
       </c>
     </row>
     <row r="7">
@@ -11182,7 +9745,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>12.02267325074304</v>
+        <v>12.02267325127227</v>
       </c>
     </row>
     <row r="8">
@@ -11195,7 +9758,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>11.97854609652135</v>
+        <v>11.97854609700346</v>
       </c>
     </row>
     <row r="9">
@@ -11208,7 +9771,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>11.91721891836171</v>
+        <v>11.91721891884643</v>
       </c>
     </row>
     <row r="10">
@@ -11221,7 +9784,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>11.8378527123481</v>
+        <v>11.83785271283624</v>
       </c>
     </row>
     <row r="11">
@@ -11234,7 +9797,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>11.76423559403245</v>
+        <v>11.76423559452378</v>
       </c>
     </row>
     <row r="12">
@@ -11247,7 +9810,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>11.75334794423887</v>
+        <v>11.75334794473067</v>
       </c>
     </row>
     <row r="13">
@@ -11260,7 +9823,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>11.7343632879037</v>
+        <v>11.73436328839632</v>
       </c>
     </row>
     <row r="14">
@@ -11273,7 +9836,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>11.65697172122271</v>
+        <v>11.65697172171866</v>
       </c>
     </row>
     <row r="15">
@@ -11286,7 +9849,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>11.62827466225477</v>
+        <v>11.62827466275195</v>
       </c>
     </row>
     <row r="16">
@@ -11299,7 +9862,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>11.61039482418663</v>
+        <v>11.61039482468458</v>
       </c>
     </row>
     <row r="17">
@@ -11312,7 +9875,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>11.59307699158457</v>
+        <v>11.59307699208327</v>
       </c>
     </row>
     <row r="18">
@@ -11325,7 +9888,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>11.56741251769716</v>
+        <v>11.56741251819697</v>
       </c>
     </row>
     <row r="19">
@@ -11338,7 +9901,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>11.55972706416845</v>
+        <v>11.55972706466859</v>
       </c>
     </row>
     <row r="20">
@@ -11351,7 +9914,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>12.61573936184586</v>
+        <v>12.61573936283994</v>
       </c>
     </row>
     <row r="21">
@@ -11364,7 +9927,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>12.5704470441723</v>
+        <v>12.57044704687921</v>
       </c>
     </row>
     <row r="22">
@@ -11377,7 +9940,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>12.56152803732678</v>
+        <v>12.56152804043563</v>
       </c>
     </row>
     <row r="23">
@@ -11390,7 +9953,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>12.55345832284914</v>
+        <v>12.5534583261731</v>
       </c>
     </row>
     <row r="24">
@@ -11403,7 +9966,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>12.39859980770514</v>
+        <v>12.39859980830031</v>
       </c>
     </row>
     <row r="25">
@@ -11416,7 +9979,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>12.31414299426181</v>
+        <v>12.31414299485319</v>
       </c>
     </row>
     <row r="26">
@@ -11429,7 +9992,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>12.27204865276089</v>
+        <v>12.27204865334649</v>
       </c>
     </row>
     <row r="27">
@@ -11442,7 +10005,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>11.99824874962472</v>
+        <v>11.9982487501551</v>
       </c>
     </row>
     <row r="28">
@@ -11455,7 +10018,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>11.96579175437244</v>
+        <v>11.96579175490436</v>
       </c>
     </row>
     <row r="29">
@@ -11468,7 +10031,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>11.82096674212289</v>
+        <v>11.82096674266166</v>
       </c>
     </row>
     <row r="30">
@@ -11481,7 +10044,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>11.71692563600527</v>
+        <v>11.71692563654896</v>
       </c>
     </row>
     <row r="31">
@@ -11494,7 +10057,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>11.67188872239984</v>
+        <v>11.67188872294566</v>
       </c>
     </row>
     <row r="32">
@@ -11507,7 +10070,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>11.61920835399487</v>
+        <v>11.61920835454322</v>
       </c>
     </row>
     <row r="33">
@@ -11520,7 +10083,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>11.60761913204735</v>
+        <v>11.60761913259626</v>
       </c>
     </row>
     <row r="34">
@@ -11533,7 +10096,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>11.60402821173257</v>
+        <v>11.60402821228165</v>
       </c>
     </row>
   </sheetData>
@@ -11582,7 +10145,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7.084194198954893e-33</v>
       </c>
     </row>
     <row r="3">
@@ -11595,7 +10158,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01448136694528655</v>
+        <v>0.01448136700762664</v>
       </c>
     </row>
     <row r="4">
@@ -11608,7 +10171,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09604129671609003</v>
+        <v>0.09604129634772254</v>
       </c>
     </row>
     <row r="5">
@@ -11621,7 +10184,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1616510050689443</v>
+        <v>0.1616510048270302</v>
       </c>
     </row>
     <row r="6">
@@ -11634,7 +10197,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2282847575654121</v>
+        <v>0.228284757455089</v>
       </c>
     </row>
     <row r="7">
@@ -11647,7 +10210,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1338525844473248</v>
+        <v>0.1338525846492035</v>
       </c>
     </row>
     <row r="8">
@@ -11660,7 +10223,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.09647446813567044</v>
+        <v>-0.0964744678432549</v>
       </c>
     </row>
     <row r="9">
@@ -11673,7 +10236,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0604036784688136</v>
+        <v>-0.06040367817947077</v>
       </c>
     </row>
     <row r="10">
@@ -11686,7 +10249,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1334852244129005</v>
+        <v>-0.1334852241174918</v>
       </c>
     </row>
     <row r="11">
@@ -11699,7 +10262,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.196014869159198</v>
+        <v>-0.1960148688585326</v>
       </c>
     </row>
     <row r="12">
@@ -11712,7 +10275,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1887619496907556</v>
+        <v>-0.1887619493907155</v>
       </c>
     </row>
     <row r="13">
@@ -11725,7 +10288,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1772699187873747</v>
+        <v>-0.1772699184883314</v>
       </c>
     </row>
     <row r="14">
@@ -11738,7 +10301,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2685875291131158</v>
+        <v>-0.2685875288064523</v>
       </c>
     </row>
     <row r="15">
@@ -11751,7 +10314,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3472684425836302</v>
+        <v>-0.347268442270288</v>
       </c>
     </row>
     <row r="16">
@@ -11764,7 +10327,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3849511988914674</v>
+        <v>-0.384951198574921</v>
       </c>
     </row>
     <row r="17">
@@ -11777,7 +10340,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4082058991202795</v>
+        <v>-0.4082058988017359</v>
       </c>
     </row>
     <row r="18">
@@ -11790,7 +10353,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4854740805614377</v>
+        <v>-0.4854740802362303</v>
       </c>
     </row>
     <row r="19">
@@ -11803,7 +10366,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.4950636519665431</v>
+        <v>-0.495063651640502</v>
       </c>
     </row>
     <row r="20">
@@ -11816,7 +10379,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003650851315296647</v>
+        <v>0.003650851279174789</v>
       </c>
     </row>
     <row r="21">
@@ -11829,7 +10392,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.06332771299018504</v>
+        <v>-0.0633277167575384</v>
       </c>
     </row>
     <row r="22">
@@ -11842,7 +10405,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.08268558286239719</v>
+        <v>-0.08268558705380913</v>
       </c>
     </row>
     <row r="23">
@@ -11855,7 +10418,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1030331426809176</v>
+        <v>-0.1030331474502787</v>
       </c>
     </row>
     <row r="24">
@@ -11868,7 +10431,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0650796628158854</v>
+        <v>0.06507966247283295</v>
       </c>
     </row>
     <row r="25">
@@ -11881,7 +10444,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.02365423104087237</v>
+        <v>-0.02365423132928228</v>
       </c>
     </row>
     <row r="26">
@@ -11894,7 +10457,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.06735485349479027</v>
+        <v>-0.06735485373261157</v>
       </c>
     </row>
     <row r="27">
@@ -11907,7 +10470,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.173308900157062</v>
+        <v>0.1733089003553951</v>
       </c>
     </row>
     <row r="28">
@@ -11920,7 +10483,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2294623977156359</v>
+        <v>0.2294623979089178</v>
       </c>
     </row>
     <row r="29">
@@ -11933,7 +10496,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3124083270790895</v>
+        <v>0.3124083272650271</v>
       </c>
     </row>
     <row r="30">
@@ -11946,7 +10509,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3903136116148378</v>
+        <v>0.3903136117937032</v>
       </c>
     </row>
     <row r="31">
@@ -11959,7 +10522,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4955847013035077</v>
+        <v>0.495584701472571</v>
       </c>
     </row>
     <row r="32">
@@ -11972,7 +10535,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4111768164112867</v>
+        <v>0.4111768165884211</v>
       </c>
     </row>
     <row r="33">
@@ -11985,7 +10548,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3881340918691656</v>
+        <v>0.3881340920485497</v>
       </c>
     </row>
     <row r="34">
@@ -11998,7 +10561,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3804042076454022</v>
+        <v>0.3804042078255309</v>
       </c>
     </row>
   </sheetData>
